--- a/Code/Results/Cases/Case_4_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.341610955488477</v>
+        <v>0.7009156306172883</v>
       </c>
       <c r="C2">
-        <v>0.5389877604499702</v>
+        <v>0.2860586664313303</v>
       </c>
       <c r="D2">
-        <v>0.1940664083472399</v>
+        <v>0.07717596355745115</v>
       </c>
       <c r="E2">
-        <v>0.2382570786072762</v>
+        <v>0.09221461245308404</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008185553774083591</v>
+        <v>0.002539973165283912</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.424187838919963</v>
+        <v>1.600881764422098</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.874103580267473</v>
+        <v>0.984777650065439</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7811655746718529</v>
+        <v>0.3624649866762653</v>
       </c>
       <c r="N2">
-        <v>2.38490309794031</v>
+        <v>3.124431844195726</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.161448028954169</v>
+        <v>0.6577061489604148</v>
       </c>
       <c r="C3">
-        <v>0.4687476645564743</v>
+        <v>0.2687370489676368</v>
       </c>
       <c r="D3">
-        <v>0.1675444169123779</v>
+        <v>0.07019141311180022</v>
       </c>
       <c r="E3">
-        <v>0.2051737368333235</v>
+        <v>0.0837454226861496</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000826689750030148</v>
+        <v>0.002544871371795657</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.327081820757343</v>
+        <v>1.578277073721466</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.624344113454953</v>
+        <v>0.9244056624362713</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6752537880597771</v>
+        <v>0.3362313141047224</v>
       </c>
       <c r="N3">
-        <v>2.320818470646856</v>
+        <v>3.105790780679456</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05281571293753</v>
+        <v>0.6316434915227092</v>
       </c>
       <c r="C4">
-        <v>0.426583512544056</v>
+        <v>0.2582767995685629</v>
       </c>
       <c r="D4">
-        <v>0.1515404685467985</v>
+        <v>0.06594376253887901</v>
       </c>
       <c r="E4">
-        <v>0.1852973763886823</v>
+        <v>0.07859841047611837</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008318129802993197</v>
+        <v>0.00254803530986642</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.269614096220238</v>
+        <v>1.564986640784312</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.473949056584701</v>
+        <v>0.8879779473368785</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6115330985039051</v>
+        <v>0.3203529005920416</v>
       </c>
       <c r="N4">
-        <v>2.283953730330154</v>
+        <v>3.094969074603398</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.008982743856592</v>
+        <v>0.6211397965495564</v>
       </c>
       <c r="C5">
-        <v>0.4096129237178445</v>
+        <v>0.2540578089431449</v>
       </c>
       <c r="D5">
-        <v>0.1450797288493533</v>
+        <v>0.06422295955457002</v>
       </c>
       <c r="E5">
-        <v>0.177292252097736</v>
+        <v>0.07651403418850578</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008339346943137968</v>
+        <v>0.002549364109657004</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.246688088007573</v>
+        <v>1.559718239165534</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.413310607295159</v>
+        <v>0.8732934115564035</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5858520993488625</v>
+        <v>0.3139393013950738</v>
       </c>
       <c r="N5">
-        <v>2.269506789210894</v>
+        <v>3.090715380239956</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.001728837678058</v>
+        <v>0.6194027162623286</v>
       </c>
       <c r="C6">
-        <v>0.4068069067788258</v>
+        <v>0.2533598723234434</v>
       </c>
       <c r="D6">
-        <v>0.1440103468779483</v>
+        <v>0.06393783064599745</v>
       </c>
       <c r="E6">
-        <v>0.175968304298614</v>
+        <v>0.0761687065186436</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008342890985678815</v>
+        <v>0.002549587143475626</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.242909620696771</v>
+        <v>1.558852321727514</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.403278191398272</v>
+        <v>0.8708646902901762</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5816038397339298</v>
+        <v>0.312877751152449</v>
       </c>
       <c r="N6">
-        <v>2.267141310859131</v>
+        <v>3.090018474604051</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.052222883829728</v>
+        <v>0.6315013619672527</v>
       </c>
       <c r="C7">
-        <v>0.4263538229059805</v>
+        <v>0.2582197246337614</v>
       </c>
       <c r="D7">
-        <v>0.1514531018608096</v>
+        <v>0.06592051426878243</v>
       </c>
       <c r="E7">
-        <v>0.1851890523842883</v>
+        <v>0.07857024728351547</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008318414549047614</v>
+        <v>0.002548053070362483</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.269302976184278</v>
+        <v>1.564914992543123</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.473128758416664</v>
+        <v>0.8877792599599275</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6111856537247249</v>
+        <v>0.3202661746693281</v>
       </c>
       <c r="N7">
-        <v>2.283756624137141</v>
+        <v>3.094911076103372</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.27903753229819</v>
+        <v>0.6859194189591165</v>
       </c>
       <c r="C8">
-        <v>0.5145496779830694</v>
+        <v>0.2800495226738349</v>
       </c>
       <c r="D8">
-        <v>0.1848573537707807</v>
+        <v>0.07475912063443957</v>
       </c>
       <c r="E8">
-        <v>0.2267496555361959</v>
+        <v>0.08928324187217385</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008213343997662949</v>
+        <v>0.002541629684612313</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.390227089362838</v>
+        <v>1.592965098817416</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.787312645963397</v>
+        <v>0.9638276687254859</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7443479178898187</v>
+        <v>0.3533716552823165</v>
       </c>
       <c r="N8">
-        <v>2.36226058844656</v>
+        <v>3.117874486598623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.742828457234253</v>
+        <v>0.7963843966533375</v>
       </c>
       <c r="C9">
-        <v>0.6966881996908683</v>
+        <v>0.3242706862374405</v>
       </c>
       <c r="D9">
-        <v>0.2530690376076024</v>
+        <v>0.09242303307460986</v>
       </c>
       <c r="E9">
-        <v>0.3124838952952445</v>
+        <v>0.1107265402809574</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000801671788954491</v>
+        <v>0.002530268321506234</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.646945690458736</v>
+        <v>1.652672748607358</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.431672619224372</v>
+        <v>1.118103333803958</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.018061604165446</v>
+        <v>0.4201425368342413</v>
       </c>
       <c r="N9">
-        <v>2.538354650500054</v>
+        <v>3.167890545111902</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.100226565619778</v>
+        <v>0.879890695803681</v>
       </c>
       <c r="C10">
-        <v>0.8385316967041661</v>
+        <v>0.3576557301757362</v>
       </c>
       <c r="D10">
-        <v>0.3055829564913779</v>
+        <v>0.105613798190646</v>
       </c>
       <c r="E10">
-        <v>0.379264829677382</v>
+        <v>0.1267669343037809</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007876761419433813</v>
+        <v>0.002522665185442518</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.851386663721328</v>
+        <v>1.699451874958839</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.929794659569978</v>
+        <v>1.234681923594195</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.23027778928315</v>
+        <v>0.470378495834197</v>
       </c>
       <c r="N10">
-        <v>2.685062711767557</v>
+        <v>3.207728619333182</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.267739203431631</v>
+        <v>0.9184035392489136</v>
       </c>
       <c r="C11">
-        <v>0.9054338241029996</v>
+        <v>0.3730456772863988</v>
       </c>
       <c r="D11">
-        <v>0.3301866336536392</v>
+        <v>0.1116633739582795</v>
       </c>
       <c r="E11">
-        <v>0.4107850909439605</v>
+        <v>0.13413083683173</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000781375319180988</v>
+        <v>0.002519366015998145</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.948835547358541</v>
+        <v>1.721375604060086</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.163707749074149</v>
+        <v>1.288440135546523</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.330130742234445</v>
+        <v>0.4934996555785318</v>
       </c>
       <c r="N11">
-        <v>2.756560240015887</v>
+        <v>3.226534983860091</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.332006733988976</v>
+        <v>0.9330638539443612</v>
       </c>
       <c r="C12">
-        <v>0.9311709192131445</v>
+        <v>0.378903190686998</v>
       </c>
       <c r="D12">
-        <v>0.3396247190117236</v>
+        <v>0.1139614163458162</v>
       </c>
       <c r="E12">
-        <v>0.422915964740703</v>
+        <v>0.1369293418056543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007789958060864009</v>
+        <v>0.002518139504348323</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.986473647378105</v>
+        <v>1.729770844907065</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.253523523735794</v>
+        <v>1.308902895100573</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.368505951603225</v>
+        <v>0.5022944860015457</v>
       </c>
       <c r="N12">
-        <v>2.78441507031215</v>
+        <v>3.233755659162938</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.318126298124923</v>
+        <v>0.9299030851225893</v>
       </c>
       <c r="C13">
-        <v>0.9256090020078318</v>
+        <v>0.3776403426398076</v>
       </c>
       <c r="D13">
-        <v>0.3375863481067967</v>
+        <v>0.113466169217233</v>
       </c>
       <c r="E13">
-        <v>0.4202941616122544</v>
+        <v>0.1363261859035489</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007795080409343415</v>
+        <v>0.002518402643169456</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.978333177901646</v>
+        <v>1.727958624122351</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.23412179282559</v>
+        <v>1.304491152262983</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.360214614814282</v>
+        <v>0.5003986001267009</v>
       </c>
       <c r="N13">
-        <v>2.77837966222998</v>
+        <v>3.232196136909494</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.273009037417978</v>
+        <v>0.9196081177144038</v>
       </c>
       <c r="C14">
-        <v>0.9075427798819362</v>
+        <v>0.3735269808596513</v>
       </c>
       <c r="D14">
-        <v>0.3309605672206288</v>
+        <v>0.1118522901422381</v>
       </c>
       <c r="E14">
-        <v>0.4117790086279172</v>
+        <v>0.1343608701976464</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007811794440506503</v>
+        <v>0.002519264653975244</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.951916698129097</v>
+        <v>1.722064413986786</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.171070979324099</v>
+        <v>1.290121493405366</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.333276071016584</v>
+        <v>0.4942224187420123</v>
       </c>
       <c r="N14">
-        <v>2.758835639496994</v>
+        <v>3.22712704228249</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.245486042419884</v>
+        <v>0.9133121177411567</v>
       </c>
       <c r="C15">
-        <v>0.8965310959358987</v>
+        <v>0.3710113072905585</v>
       </c>
       <c r="D15">
-        <v>0.3269184579943243</v>
+        <v>0.1108646846279839</v>
       </c>
       <c r="E15">
-        <v>0.4065895919877249</v>
+        <v>0.1331583633821865</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007822039737452607</v>
+        <v>0.002519795627338617</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.935834828439681</v>
+        <v>1.718466196769668</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.132617711063233</v>
+        <v>1.281333465260616</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.316851532679138</v>
+        <v>0.490444475540329</v>
       </c>
       <c r="N15">
-        <v>2.746969045601588</v>
+        <v>3.224035006250148</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.089388756576625</v>
+        <v>0.8773844300973224</v>
       </c>
       <c r="C16">
-        <v>0.8342123318081462</v>
+        <v>0.3566540863519947</v>
       </c>
       <c r="D16">
-        <v>0.3039909524718354</v>
+        <v>0.1052194434788447</v>
       </c>
       <c r="E16">
-        <v>0.3772303998872601</v>
+        <v>0.1262870618283429</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00078808899323241</v>
+        <v>0.002522883993418558</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.84511562695306</v>
+        <v>1.698032114559595</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.914670427112441</v>
+        <v>1.23118341723216</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.223825983762055</v>
+        <v>0.4688729400487972</v>
       </c>
       <c r="N16">
-        <v>2.680493853661773</v>
+        <v>3.206513405919651</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.994974880853846</v>
+        <v>0.8554790797299177</v>
       </c>
       <c r="C17">
-        <v>0.7966313257485069</v>
+        <v>0.3478987191203657</v>
       </c>
       <c r="D17">
-        <v>0.2901211210590304</v>
+        <v>0.1017689340091863</v>
       </c>
       <c r="E17">
-        <v>0.3595323215536155</v>
+        <v>0.1220891350813176</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007917141169556111</v>
+        <v>0.00252481937491034</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.79066635978343</v>
+        <v>1.68566177907735</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.782965091049334</v>
+        <v>1.200604850138205</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.167664652612046</v>
+        <v>0.4557088041667043</v>
       </c>
       <c r="N17">
-        <v>2.640996699083189</v>
+        <v>3.1959401671877</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.941126193269071</v>
+        <v>0.8429291077411278</v>
       </c>
       <c r="C18">
-        <v>0.7752353356184472</v>
+        <v>0.3428819335242963</v>
       </c>
       <c r="D18">
-        <v>0.2822096100525897</v>
+        <v>0.09978889819039694</v>
       </c>
       <c r="E18">
-        <v>0.3494582016741106</v>
+        <v>0.1196808904132709</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007938055928537616</v>
+        <v>0.002525947579049004</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.759760715484347</v>
+        <v>1.678607235507215</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.707887668364918</v>
+        <v>1.183085125647153</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.135668319386006</v>
+        <v>0.4481623762129985</v>
       </c>
       <c r="N18">
-        <v>2.618720499007281</v>
+        <v>3.189923037478707</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.922968667430524</v>
+        <v>0.8386883648070409</v>
       </c>
       <c r="C19">
-        <v>0.7680270165644743</v>
+        <v>0.3411865964874039</v>
       </c>
       <c r="D19">
-        <v>0.2795417296064784</v>
+        <v>0.09911927866292558</v>
       </c>
       <c r="E19">
-        <v>0.346064504378667</v>
+        <v>0.1188665712752979</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007945149151187765</v>
+        <v>0.002526332153972354</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.749364638076599</v>
+        <v>1.676229067770066</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.682578575193105</v>
+        <v>1.177164932522061</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.124885053478188</v>
+        <v>0.4456115974481065</v>
       </c>
       <c r="N19">
-        <v>2.611251276535683</v>
+        <v>3.187896763738621</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.004977384263128</v>
+        <v>0.857805822698964</v>
       </c>
       <c r="C20">
-        <v>0.8006087442968806</v>
+        <v>0.3488287656707882</v>
       </c>
       <c r="D20">
-        <v>0.2915906266525354</v>
+        <v>0.1021357688579485</v>
       </c>
       <c r="E20">
-        <v>0.3614052004274342</v>
+        <v>0.1225353581117403</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007913275744087643</v>
+        <v>0.002524611796130173</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.796419262951758</v>
+        <v>1.686972351524531</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.796914116051795</v>
+        <v>1.203852917040223</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.173610845380637</v>
+        <v>0.4571075319427536</v>
       </c>
       <c r="N20">
-        <v>2.64515488946671</v>
+        <v>3.197059044320838</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.28623735091395</v>
+        <v>0.9226299211144351</v>
       </c>
       <c r="C21">
-        <v>0.9128378095419691</v>
+        <v>0.3747343655897737</v>
       </c>
       <c r="D21">
-        <v>0.3329032711979352</v>
+        <v>0.1123261289641562</v>
       </c>
       <c r="E21">
-        <v>0.4142745607640279</v>
+        <v>0.1349378583673513</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007806883628053541</v>
+        <v>0.002519010842476419</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.959655038134059</v>
+        <v>1.723793151777187</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.189555323632305</v>
+        <v>1.294339331707477</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.341172544045577</v>
+        <v>0.4960354391418491</v>
       </c>
       <c r="N21">
-        <v>2.764554186471003</v>
+        <v>3.228613262075072</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.474989799415823</v>
+        <v>0.9654415408225532</v>
       </c>
       <c r="C22">
-        <v>0.9885680550377458</v>
+        <v>0.3918383730051858</v>
       </c>
       <c r="D22">
-        <v>0.3606203537989643</v>
+        <v>0.119028152188406</v>
       </c>
       <c r="E22">
-        <v>0.4499810102077575</v>
+        <v>0.1431017825500618</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000773771053117876</v>
+        <v>0.00251548320319064</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.070685783095513</v>
+        <v>1.748401222804247</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.453490466354651</v>
+        <v>1.354094100403017</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.454015017467341</v>
+        <v>0.5217067793346075</v>
       </c>
       <c r="N22">
-        <v>2.847191015077271</v>
+        <v>3.249813844807818</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.373751796229101</v>
+        <v>0.9425511633793349</v>
       </c>
       <c r="C23">
-        <v>0.9479089916200394</v>
+        <v>0.3826936291443133</v>
       </c>
       <c r="D23">
-        <v>0.3457548844623659</v>
+        <v>0.1154472604524983</v>
       </c>
       <c r="E23">
-        <v>0.4308069304403759</v>
+        <v>0.1387391150039363</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007774607530453681</v>
+        <v>0.002517353851850067</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.010993322664149</v>
+        <v>1.735217482362003</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.311885031816871</v>
+        <v>1.322144998475608</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.393452236948377</v>
+        <v>0.5079842403816883</v>
       </c>
       <c r="N23">
-        <v>2.802629803308264</v>
+        <v>3.238445540133768</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.000453918905663</v>
+        <v>0.8567537661267011</v>
       </c>
       <c r="C24">
-        <v>0.7988099042869976</v>
+        <v>0.3484082393619303</v>
       </c>
       <c r="D24">
-        <v>0.2909260700468934</v>
+        <v>0.1019699112873553</v>
       </c>
       <c r="E24">
-        <v>0.3605581603647749</v>
+        <v>0.1223336045114394</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007915023072314111</v>
+        <v>0.002524705594185311</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.793817143001775</v>
+        <v>1.686379663192412</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.790605776735163</v>
+        <v>1.20238427826763</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.170921669842869</v>
+        <v>0.4564750992436331</v>
       </c>
       <c r="N24">
-        <v>2.643273635458883</v>
+        <v>3.196553008231803</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.614837958385635</v>
+        <v>0.766092861513755</v>
       </c>
       <c r="C25">
-        <v>0.6461983713661255</v>
+        <v>0.3121528939929021</v>
       </c>
       <c r="D25">
-        <v>0.2342540079382047</v>
+        <v>0.08760786066839898</v>
       </c>
       <c r="E25">
-        <v>0.2887211386024617</v>
+        <v>0.1048768455206357</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008069021836466136</v>
+        <v>0.002533210576463487</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.575025196077931</v>
+        <v>1.636012230179986</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.253611128664573</v>
+        <v>1.075807058474965</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9423363627812833</v>
+        <v>0.4018758443245645</v>
       </c>
       <c r="N25">
-        <v>2.487977105515625</v>
+        <v>3.153820834207124</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7009156306172883</v>
+        <v>1.341610955488363</v>
       </c>
       <c r="C2">
-        <v>0.2860586664313303</v>
+        <v>0.5389877604503681</v>
       </c>
       <c r="D2">
-        <v>0.07717596355745115</v>
+        <v>0.1940664083473393</v>
       </c>
       <c r="E2">
-        <v>0.09221461245308404</v>
+        <v>0.2382570786072407</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002539973165283912</v>
+        <v>0.0008185553774032621</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.600881764422098</v>
+        <v>1.424187838919934</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.984777650065439</v>
+        <v>1.874103580267558</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3624649866762653</v>
+        <v>0.7811655746718529</v>
       </c>
       <c r="N2">
-        <v>3.124431844195726</v>
+        <v>2.384903097940224</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6577061489604148</v>
+        <v>1.161448028954197</v>
       </c>
       <c r="C3">
-        <v>0.2687370489676368</v>
+        <v>0.4687476645564459</v>
       </c>
       <c r="D3">
-        <v>0.07019141311180022</v>
+        <v>0.1675444169127331</v>
       </c>
       <c r="E3">
-        <v>0.0837454226861496</v>
+        <v>0.2051737368333306</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002544871371795657</v>
+        <v>0.0008266897500905442</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.578277073721466</v>
+        <v>1.327081820757343</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9244056624362713</v>
+        <v>1.624344113454924</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3362313141047224</v>
+        <v>0.6752537880597771</v>
       </c>
       <c r="N3">
-        <v>3.105790780679456</v>
+        <v>2.32081847064687</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6316434915227092</v>
+        <v>1.052815712937445</v>
       </c>
       <c r="C4">
-        <v>0.2582767995685629</v>
+        <v>0.4265835125437718</v>
       </c>
       <c r="D4">
-        <v>0.06594376253887901</v>
+        <v>0.1515404685465427</v>
       </c>
       <c r="E4">
-        <v>0.07859841047611837</v>
+        <v>0.1852973763887107</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00254803530986642</v>
+        <v>0.0008318129802471657</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.564986640784312</v>
+        <v>1.269614096220252</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8879779473368785</v>
+        <v>1.473949056584786</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3203529005920416</v>
+        <v>0.6115330985039265</v>
       </c>
       <c r="N4">
-        <v>3.094969074603398</v>
+        <v>2.283953730330197</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6211397965495564</v>
+        <v>1.008982743856535</v>
       </c>
       <c r="C5">
-        <v>0.2540578089431449</v>
+        <v>0.4096129237178445</v>
       </c>
       <c r="D5">
-        <v>0.06422295955457002</v>
+        <v>0.1450797288496801</v>
       </c>
       <c r="E5">
-        <v>0.07651403418850578</v>
+        <v>0.1772922520976934</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002549364109657004</v>
+        <v>0.0008339346943000425</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.559718239165534</v>
+        <v>1.246688088007573</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8732934115564035</v>
+        <v>1.413310607295131</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3139393013950738</v>
+        <v>0.5858520993488554</v>
       </c>
       <c r="N5">
-        <v>3.090715380239956</v>
+        <v>2.269506789210823</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6194027162623286</v>
+        <v>1.001728837678257</v>
       </c>
       <c r="C6">
-        <v>0.2533598723234434</v>
+        <v>0.4068069067788258</v>
       </c>
       <c r="D6">
-        <v>0.06393783064599745</v>
+        <v>0.1440103468779199</v>
       </c>
       <c r="E6">
-        <v>0.0761687065186436</v>
+        <v>0.1759683042986069</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002549587143475626</v>
+        <v>0.0008342890985050248</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.558852321727514</v>
+        <v>1.242909620696786</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8708646902901762</v>
+        <v>1.403278191398186</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.312877751152449</v>
+        <v>0.5816038397339227</v>
       </c>
       <c r="N6">
-        <v>3.090018474604051</v>
+        <v>2.267141310859174</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6315013619672527</v>
+        <v>1.052222883829472</v>
       </c>
       <c r="C7">
-        <v>0.2582197246337614</v>
+        <v>0.4263538229062362</v>
       </c>
       <c r="D7">
-        <v>0.06592051426878243</v>
+        <v>0.1514531018606959</v>
       </c>
       <c r="E7">
-        <v>0.07857024728351547</v>
+        <v>0.1851890523842954</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002548053070362483</v>
+        <v>0.0008318414549045583</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.564914992543123</v>
+        <v>1.269302976184306</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8877792599599275</v>
+        <v>1.473128758416692</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3202661746693281</v>
+        <v>0.611185653724732</v>
       </c>
       <c r="N7">
-        <v>3.094911076103372</v>
+        <v>2.283756624137155</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6859194189591165</v>
+        <v>1.279037532298219</v>
       </c>
       <c r="C8">
-        <v>0.2800495226738349</v>
+        <v>0.5145496779832399</v>
       </c>
       <c r="D8">
-        <v>0.07475912063443957</v>
+        <v>0.1848573537707665</v>
       </c>
       <c r="E8">
-        <v>0.08928324187217385</v>
+        <v>0.2267496555362243</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002541629684612313</v>
+        <v>0.0008213343998802333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.592965098817416</v>
+        <v>1.390227089362853</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9638276687254859</v>
+        <v>1.787312645963311</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3533716552823165</v>
+        <v>0.7443479178898187</v>
       </c>
       <c r="N8">
-        <v>3.117874486598623</v>
+        <v>2.36226058844656</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7963843966533375</v>
+        <v>1.742828457234424</v>
       </c>
       <c r="C9">
-        <v>0.3242706862374405</v>
+        <v>0.6966881996910956</v>
       </c>
       <c r="D9">
-        <v>0.09242303307460986</v>
+        <v>0.2530690376077445</v>
       </c>
       <c r="E9">
-        <v>0.1107265402809574</v>
+        <v>0.3124838952953013</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002530268321506234</v>
+        <v>0.0008016717890154041</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.652672748607358</v>
+        <v>1.646945690458722</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.118103333803958</v>
+        <v>2.431672619224315</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4201425368342413</v>
+        <v>1.018061604165453</v>
       </c>
       <c r="N9">
-        <v>3.167890545111902</v>
+        <v>2.538354650500054</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.879890695803681</v>
+        <v>2.100226565619835</v>
       </c>
       <c r="C10">
-        <v>0.3576557301757362</v>
+        <v>0.8385316967036545</v>
       </c>
       <c r="D10">
-        <v>0.105613798190646</v>
+        <v>0.3055829564918469</v>
       </c>
       <c r="E10">
-        <v>0.1267669343037809</v>
+        <v>0.3792648296773464</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002522665185442518</v>
+        <v>0.0007876761418164069</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.699451874958839</v>
+        <v>1.851386663721328</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.234681923594195</v>
+        <v>2.929794659570035</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.470378495834197</v>
+        <v>1.230277789283107</v>
       </c>
       <c r="N10">
-        <v>3.207728619333182</v>
+        <v>2.685062711767586</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9184035392489136</v>
+        <v>2.267739203431859</v>
       </c>
       <c r="C11">
-        <v>0.3730456772863988</v>
+        <v>0.9054338241032269</v>
       </c>
       <c r="D11">
-        <v>0.1116633739582795</v>
+        <v>0.330186633653426</v>
       </c>
       <c r="E11">
-        <v>0.13413083683173</v>
+        <v>0.4107850909439605</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002519366015998145</v>
+        <v>0.0007813753191823265</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.721375604060086</v>
+        <v>1.948835547358556</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.288440135546523</v>
+        <v>3.163707749074149</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4934996555785318</v>
+        <v>1.330130742234431</v>
       </c>
       <c r="N11">
-        <v>3.226534983860091</v>
+        <v>2.756560240015887</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9330638539443612</v>
+        <v>2.332006733989033</v>
       </c>
       <c r="C12">
-        <v>0.378903190686998</v>
+        <v>0.9311709192128887</v>
       </c>
       <c r="D12">
-        <v>0.1139614163458162</v>
+        <v>0.3396247190121784</v>
       </c>
       <c r="E12">
-        <v>0.1369293418056543</v>
+        <v>0.4229159647407101</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002518139504348323</v>
+        <v>0.0007789958060276702</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.729770844907065</v>
+        <v>1.986473647378119</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.308902895100573</v>
+        <v>3.253523523735907</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5022944860015457</v>
+        <v>1.368505951603225</v>
       </c>
       <c r="N12">
-        <v>3.233755659162938</v>
+        <v>2.78441507031215</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9299030851225893</v>
+        <v>2.318126298124866</v>
       </c>
       <c r="C13">
-        <v>0.3776403426398076</v>
+        <v>0.9256090020076044</v>
       </c>
       <c r="D13">
-        <v>0.113466169217233</v>
+        <v>0.3375863481065693</v>
       </c>
       <c r="E13">
-        <v>0.1363261859035489</v>
+        <v>0.4202941616123255</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002518402643169456</v>
+        <v>0.0007795080409913821</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.727958624122351</v>
+        <v>1.978333177901646</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.304491152262983</v>
+        <v>3.234121792825533</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5003986001267009</v>
+        <v>1.360214614814282</v>
       </c>
       <c r="N13">
-        <v>3.232196136909494</v>
+        <v>2.77837966222998</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9196081177144038</v>
+        <v>2.273009037417978</v>
       </c>
       <c r="C14">
-        <v>0.3735269808596513</v>
+        <v>0.9075427798816804</v>
       </c>
       <c r="D14">
-        <v>0.1118522901422381</v>
+        <v>0.3309605672209273</v>
       </c>
       <c r="E14">
-        <v>0.1343608701976464</v>
+        <v>0.4117790086279172</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002519264653975244</v>
+        <v>0.0007811794440493465</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.722064413986786</v>
+        <v>1.951916698129097</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.290121493405366</v>
+        <v>3.171070979324156</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4942224187420123</v>
+        <v>1.333276071016584</v>
       </c>
       <c r="N14">
-        <v>3.22712704228249</v>
+        <v>2.758835639496994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9133121177411567</v>
+        <v>2.245486042419827</v>
       </c>
       <c r="C15">
-        <v>0.3710113072905585</v>
+        <v>0.8965310959361545</v>
       </c>
       <c r="D15">
-        <v>0.1108646846279839</v>
+        <v>0.326918457994708</v>
       </c>
       <c r="E15">
-        <v>0.1331583633821865</v>
+        <v>0.4065895919877249</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002519795627338617</v>
+        <v>0.000782203973871203</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.718466196769668</v>
+        <v>1.935834828439667</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.281333465260616</v>
+        <v>3.132617711063233</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.490444475540329</v>
+        <v>1.316851532679124</v>
       </c>
       <c r="N15">
-        <v>3.224035006250148</v>
+        <v>2.746969045601588</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8773844300973224</v>
+        <v>2.089388756576568</v>
       </c>
       <c r="C16">
-        <v>0.3566540863519947</v>
+        <v>0.8342123318084305</v>
       </c>
       <c r="D16">
-        <v>0.1052194434788447</v>
+        <v>0.3039909524718496</v>
       </c>
       <c r="E16">
-        <v>0.1262870618283429</v>
+        <v>0.3772303998872033</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002522883993418558</v>
+        <v>0.0007880889932307483</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.698032114559595</v>
+        <v>1.845115626953088</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.23118341723216</v>
+        <v>2.914670427112412</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4688729400487972</v>
+        <v>1.22382598376204</v>
       </c>
       <c r="N16">
-        <v>3.206513405919651</v>
+        <v>2.680493853661801</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8554790797299177</v>
+        <v>1.994974880853817</v>
       </c>
       <c r="C17">
-        <v>0.3478987191203657</v>
+        <v>0.7966313257485638</v>
       </c>
       <c r="D17">
-        <v>0.1017689340091863</v>
+        <v>0.2901211210589025</v>
       </c>
       <c r="E17">
-        <v>0.1220891350813176</v>
+        <v>0.3595323215536652</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00252481937491034</v>
+        <v>0.0007917141169564047</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.68566177907735</v>
+        <v>1.79066635978343</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.200604850138205</v>
+        <v>2.782965091049363</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4557088041667043</v>
+        <v>1.167664652612061</v>
       </c>
       <c r="N17">
-        <v>3.1959401671877</v>
+        <v>2.640996699083189</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8429291077411278</v>
+        <v>1.941126193269014</v>
       </c>
       <c r="C18">
-        <v>0.3428819335242963</v>
+        <v>0.7752353356184756</v>
       </c>
       <c r="D18">
-        <v>0.09978889819039694</v>
+        <v>0.2822096100525187</v>
       </c>
       <c r="E18">
-        <v>0.1196808904132709</v>
+        <v>0.3494582016740893</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002525947579049004</v>
+        <v>0.0007938055927353914</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.678607235507215</v>
+        <v>1.759760715484347</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.183085125647153</v>
+        <v>2.707887668364862</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4481623762129985</v>
+        <v>1.135668319386014</v>
       </c>
       <c r="N18">
-        <v>3.189923037478707</v>
+        <v>2.618720499007281</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8386883648070409</v>
+        <v>1.922968667430752</v>
       </c>
       <c r="C19">
-        <v>0.3411865964874039</v>
+        <v>0.768027016564929</v>
       </c>
       <c r="D19">
-        <v>0.09911927866292558</v>
+        <v>0.2795417296065921</v>
       </c>
       <c r="E19">
-        <v>0.1188665712752979</v>
+        <v>0.3460645043786812</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002526332153972354</v>
+        <v>0.0007945149151168396</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.676229067770066</v>
+        <v>1.749364638076614</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.177164932522061</v>
+        <v>2.682578575193077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4456115974481065</v>
+        <v>1.124885053478152</v>
       </c>
       <c r="N19">
-        <v>3.187896763738621</v>
+        <v>2.611251276535739</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.857805822698964</v>
+        <v>2.004977384263043</v>
       </c>
       <c r="C20">
-        <v>0.3488287656707882</v>
+        <v>0.8006087442968806</v>
       </c>
       <c r="D20">
-        <v>0.1021357688579485</v>
+        <v>0.2915906266527912</v>
       </c>
       <c r="E20">
-        <v>0.1225353581117403</v>
+        <v>0.3614052004274981</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002524611796130173</v>
+        <v>0.0007913275744051038</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.686972351524531</v>
+        <v>1.796419262951744</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.203852917040223</v>
+        <v>2.79691411605188</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4571075319427536</v>
+        <v>1.173610845380665</v>
       </c>
       <c r="N20">
-        <v>3.197059044320838</v>
+        <v>2.645154889466681</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9226299211144351</v>
+        <v>2.286237350914007</v>
       </c>
       <c r="C21">
-        <v>0.3747343655897737</v>
+        <v>0.9128378095415144</v>
       </c>
       <c r="D21">
-        <v>0.1123261289641562</v>
+        <v>0.3329032711978357</v>
       </c>
       <c r="E21">
-        <v>0.1349378583673513</v>
+        <v>0.4142745607639142</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002519010842476419</v>
+        <v>0.0007806883627352972</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.723793151777187</v>
+        <v>1.959655038134045</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.294339331707477</v>
+        <v>3.189555323632192</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4960354391418491</v>
+        <v>1.341172544045548</v>
       </c>
       <c r="N21">
-        <v>3.228613262075072</v>
+        <v>2.764554186471031</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9654415408225532</v>
+        <v>2.474989799415823</v>
       </c>
       <c r="C22">
-        <v>0.3918383730051858</v>
+        <v>0.9885680550374616</v>
       </c>
       <c r="D22">
-        <v>0.119028152188406</v>
+        <v>0.3606203537990353</v>
       </c>
       <c r="E22">
-        <v>0.1431017825500618</v>
+        <v>0.4499810102078001</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00251548320319064</v>
+        <v>0.0007737710531141584</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.748401222804247</v>
+        <v>2.070685783095541</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.354094100403017</v>
+        <v>3.453490466354594</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5217067793346075</v>
+        <v>1.454015017467341</v>
       </c>
       <c r="N22">
-        <v>3.249813844807818</v>
+        <v>2.847191015077328</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9425511633793349</v>
+        <v>2.373751796229044</v>
       </c>
       <c r="C23">
-        <v>0.3826936291443133</v>
+        <v>0.9479089916205226</v>
       </c>
       <c r="D23">
-        <v>0.1154472604524983</v>
+        <v>0.3457548844623659</v>
       </c>
       <c r="E23">
-        <v>0.1387391150039363</v>
+        <v>0.4308069304403972</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002517353851850067</v>
+        <v>0.0007774607530450227</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.735217482362003</v>
+        <v>2.010993322664149</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.322144998475608</v>
+        <v>3.311885031816757</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5079842403816883</v>
+        <v>1.393452236948391</v>
       </c>
       <c r="N23">
-        <v>3.238445540133768</v>
+        <v>2.802629803308264</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8567537661267011</v>
+        <v>2.000453918905919</v>
       </c>
       <c r="C24">
-        <v>0.3484082393619303</v>
+        <v>0.7988099042869976</v>
       </c>
       <c r="D24">
-        <v>0.1019699112873553</v>
+        <v>0.2909260700468792</v>
       </c>
       <c r="E24">
-        <v>0.1223336045114394</v>
+        <v>0.3605581603647678</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002524705594185311</v>
+        <v>0.0007915023072968508</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.686379663192412</v>
+        <v>1.793817143001775</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.20238427826763</v>
+        <v>2.790605776735021</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4564750992436331</v>
+        <v>1.170921669842869</v>
       </c>
       <c r="N24">
-        <v>3.196553008231803</v>
+        <v>2.643273635458911</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.766092861513755</v>
+        <v>1.614837958385607</v>
       </c>
       <c r="C25">
-        <v>0.3121528939929021</v>
+        <v>0.6461983713658412</v>
       </c>
       <c r="D25">
-        <v>0.08760786066839898</v>
+        <v>0.234254007938091</v>
       </c>
       <c r="E25">
-        <v>0.1048768455206357</v>
+        <v>0.2887211386024617</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002533210576463487</v>
+        <v>0.000806902183703866</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.636012230179986</v>
+        <v>1.575025196077931</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.075807058474965</v>
+        <v>2.253611128664573</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4018758443245645</v>
+        <v>0.9423363627812833</v>
       </c>
       <c r="N25">
-        <v>3.153820834207124</v>
+        <v>2.487977105515654</v>
       </c>
       <c r="O25">
         <v>0</v>
